--- a/models/calculation engines/cbix2/outputs/default/workings_for_viu_adjustmnet_of_trade_bauxite/actual_price_determination_from_CBIX_price/bauxite_at_hand_cost_to_alumina_bauxite_details-input.xlsx
+++ b/models/calculation engines/cbix2/outputs/default/workings_for_viu_adjustmnet_of_trade_bauxite/actual_price_determination_from_CBIX_price/bauxite_at_hand_cost_to_alumina_bauxite_details-input.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,7 +565,7 @@
         <v>0.3625</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09</v>
+        <v>0.08999999999999998</v>
       </c>
       <c r="E4" t="n">
         <v>0.0675</v>
@@ -1576,68 +1576,68 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>31.5920800325459</v>
+        <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.055</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.108</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>HT-B</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0</v>
+        <v>28.2434291723232</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>0.513</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>0.405</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>0.095</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>0.051</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>0.044</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.05192328721453579</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
+        <v>0.1</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1.26616436072679</v>
       </c>
     </row>
     <row r="36">
@@ -1710,36 +1710,34 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>53.055015873193</v>
+        <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.055</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>LT</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1880,36 +1878,34 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>46.2881641097192</v>
+        <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.055</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>LT</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1948,7 +1944,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>53.8648018068254</v>
+        <v>55.2999326144731</v>
       </c>
       <c r="B45" t="n">
         <v>0.55</v>
@@ -1966,10 +1962,10 @@
         <v>0.005</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03</v>
+        <v>0.00899999999999998</v>
       </c>
       <c r="H45" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -1982,7 +1978,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>55.2999326144731</v>
+        <v>53.055015873193</v>
       </c>
       <c r="B46" t="n">
         <v>0.55</v>
@@ -2000,10 +1996,10 @@
         <v>0.005</v>
       </c>
       <c r="G46" t="n">
-        <v>0.00899999999999998</v>
+        <v>0.02</v>
       </c>
       <c r="H46" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -2011,6 +2007,108 @@
         </is>
       </c>
       <c r="J46" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>68.3412731086629</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>53.8648018068254</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>53.8648018068254</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
         <v>0.33</v>
       </c>
     </row>
